--- a/AAII_Financials/Yearly/NEX_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/NEX_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="92">
   <si>
     <t>NEX</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,130 +665,142 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42369</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42004</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>1821600</v>
+      </c>
+      <c r="E8" s="3">
         <v>2137000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1542100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>420600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>366200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>395800</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>1403900</v>
+      </c>
+      <c r="E9" s="3">
         <v>1660300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1280900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>402700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>305500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>315100</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>417600</v>
+      </c>
+      <c r="E10" s="3">
         <v>476700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>261200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>17800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>60700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>80700</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -800,8 +812,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -826,9 +839,12 @@
       <c r="J12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -853,63 +869,72 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>81100</v>
+      </c>
+      <c r="E14" s="3">
         <v>16600</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>22900</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>37500</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>10200</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>22500</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>292200</v>
+      </c>
+      <c r="E15" s="3">
         <v>259100</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>159300</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>101000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>69500</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>68300</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -918,62 +943,69 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1905300</v>
+      </c>
+      <c r="E17" s="3">
         <v>2052300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1546600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>570600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>407600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>431000</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-83700</v>
+      </c>
+      <c r="E18" s="3">
         <v>84700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-4500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-150000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-41400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-35200</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -985,128 +1017,141 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>500</v>
+      </c>
+      <c r="E20" s="3">
         <v>12400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>27400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>208900</v>
+      </c>
+      <c r="E21" s="3">
         <v>356300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>182100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-47600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>28400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>33100</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>21900</v>
+      </c>
+      <c r="E22" s="3">
         <v>33500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>58900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>38500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>23500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>10500</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-105200</v>
+      </c>
+      <c r="E23" s="3">
         <v>63600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-36000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-187100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-64600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-45600</v>
       </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E24" s="3">
         <v>4300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-900</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1119,9 +1164,12 @@
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1146,63 +1194,72 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-106200</v>
+      </c>
+      <c r="E26" s="3">
         <v>59300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-35100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-187100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-64600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-45600</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-106200</v>
+      </c>
+      <c r="E27" s="3">
         <v>59300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-35100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-187100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-64600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-45600</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1227,21 +1284,24 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
         <v>-1000</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G29" s="3" t="s">
         <v>3</v>
       </c>
@@ -1254,9 +1314,12 @@
       <c r="J29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1281,9 +1344,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1308,63 +1374,72 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E32" s="3">
         <v>-12400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-27400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-106200</v>
+      </c>
+      <c r="E33" s="3">
         <v>59300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-36100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-187100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-64600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-45600</v>
       </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1389,68 +1464,77 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-106200</v>
+      </c>
+      <c r="E35" s="3">
         <v>59300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-36100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-187100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-64600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-45600</v>
       </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42369</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42004</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1462,8 +1546,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1475,35 +1560,39 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>255000</v>
+      </c>
+      <c r="E41" s="3">
         <v>80200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>96100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>48900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>53400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>52200</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1528,117 +1617,132 @@
       <c r="J42" s="3">
         <v>0</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>350800</v>
+      </c>
+      <c r="E43" s="3">
         <v>210400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>238000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>66300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>15600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>53300</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>61600</v>
+      </c>
+      <c r="E44" s="3">
         <v>35700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>33400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>15900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>4700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>16600</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>20600</v>
+      </c>
+      <c r="E45" s="3">
         <v>6000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>8500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>14600</v>
-      </c>
-      <c r="G45" s="3">
-        <v>1900</v>
       </c>
       <c r="H45" s="3">
         <v>1900</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
+      <c r="I45" s="3">
+        <v>1900</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>688100</v>
+      </c>
+      <c r="E46" s="3">
         <v>332300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>376100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>145700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>75600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>124000</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1651,75 +1755,84 @@
       <c r="F47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G47" s="3">
-        <v>0</v>
+      <c r="G47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H47" s="3">
         <v>0</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
+      <c r="I47" s="3">
+        <v>0</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>773400</v>
+      </c>
+      <c r="E48" s="3">
         <v>531300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>468000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>294200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>153600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>189900</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>192500</v>
+      </c>
+      <c r="E49" s="3">
         <v>184400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>192200</v>
-      </c>
-      <c r="F49" s="3">
-        <v>94500</v>
       </c>
       <c r="G49" s="3">
         <v>94500</v>
       </c>
       <c r="H49" s="3">
+        <v>94500</v>
+      </c>
+      <c r="I49" s="3">
         <v>103200</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1744,9 +1857,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1771,36 +1887,42 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E52" s="3">
         <v>6600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>6800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1800</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1825,36 +1947,42 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1664900</v>
+      </c>
+      <c r="E54" s="3">
         <v>1054600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1043100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>536900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>324800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>418900</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1866,8 +1994,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1879,170 +2008,189 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>115300</v>
+      </c>
+      <c r="E57" s="3">
         <v>106700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>92300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>48500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>12600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>22200</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E58" s="3">
         <v>7700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>4400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>5100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>4700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>4800</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>264000</v>
+      </c>
+      <c r="E59" s="3">
         <v>106200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>145400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>46100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>15100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>31500</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>386200</v>
+      </c>
+      <c r="E60" s="3">
         <v>220600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>242200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>99700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>32300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>58500</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>340200</v>
+      </c>
+      <c r="E61" s="3">
         <v>343500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>278500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>272700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>210500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>213700</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>51800</v>
+      </c>
+      <c r="E62" s="3">
         <v>3300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>9400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>100</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2067,9 +2215,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2094,9 +2245,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2121,36 +2275,42 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>778100</v>
+      </c>
+      <c r="E66" s="3">
         <v>567400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>530000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>374700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>244600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>272200</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2162,8 +2322,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2188,9 +2349,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2215,9 +2379,12 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2242,9 +2409,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2269,36 +2439,42 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-73300</v>
+      </c>
+      <c r="E72" s="3">
         <v>31500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-27400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-288800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-101700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-37000</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2323,9 +2499,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2350,9 +2529,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2377,36 +2559,42 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>886800</v>
+      </c>
+      <c r="E76" s="3">
         <v>487200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>513100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>162300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>80200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>146600</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2431,68 +2619,77 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42369</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42004</v>
       </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-106200</v>
+      </c>
+      <c r="E81" s="3">
         <v>59300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-36100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-187100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-64600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-45600</v>
       </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2504,35 +2701,39 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>292200</v>
+      </c>
+      <c r="E83" s="3">
         <v>259100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>159300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>101000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>69500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>68300</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2557,9 +2758,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2584,9 +2788,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2611,9 +2818,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2638,9 +2848,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2665,36 +2878,42 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>305500</v>
+      </c>
+      <c r="E89" s="3">
         <v>350300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>79700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-54100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>37500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>18700</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2706,35 +2925,39 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-200400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-279200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-141500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-23100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-26100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-130500</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2759,9 +2982,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2786,36 +3012,42 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-114100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-297500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-250800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-227200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-26000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-138900</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2827,8 +3059,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -2853,9 +3086,12 @@
       <c r="J96" s="3">
         <v>0</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2880,9 +3116,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2907,9 +3146,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2934,88 +3176,100 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-16700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-68600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>218100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>276600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-10500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>137300</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>200</v>
+      </c>
+      <c r="E101" s="3">
         <v>-200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-400</v>
       </c>
-      <c r="I101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>174800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-15900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>47200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-4500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>16800</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/NEX_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/NEX_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="92">
   <si>
     <t>NEX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,142 +665,154 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42369</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42004</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>1202600</v>
+      </c>
+      <c r="E8" s="3">
         <v>1821600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2137000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1542100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>420600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>366200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>395800</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>1032600</v>
+      </c>
+      <c r="E9" s="3">
         <v>1403900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1660300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1280900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>402700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>305500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>315100</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>170000</v>
+      </c>
+      <c r="E10" s="3">
         <v>417600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>476700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>261200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>17800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>60700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>80700</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -813,8 +825,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -842,9 +855,12 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -872,69 +888,78 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>69500</v>
+      </c>
+      <c r="E14" s="3">
         <v>81100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>16600</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>22900</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>37500</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>10200</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>22500</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>302100</v>
+      </c>
+      <c r="E15" s="3">
         <v>292200</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>259100</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>159300</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>101000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>69500</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>68300</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -944,68 +969,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1533900</v>
+      </c>
+      <c r="E17" s="3">
         <v>1905300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2052300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1546600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>570600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>407600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>431000</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-331300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-83700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>84700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-4500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-150000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-41400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-35200</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1018,143 +1050,156 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E20" s="3">
         <v>500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>12400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>27400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-22700</v>
+      </c>
+      <c r="E21" s="3">
         <v>208900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>356300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>182100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-47600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>28400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>33100</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>20700</v>
+      </c>
+      <c r="E22" s="3">
         <v>21900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>33500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>58900</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>38500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>23500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>10500</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-345400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-105200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>63600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-36000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-187100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-64600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-45600</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E24" s="3">
         <v>1000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>4300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-900</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1167,9 +1212,12 @@
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1197,69 +1245,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-346900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-106200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>59300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-35100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-187100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-64600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-45600</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-346900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-106200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>59300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-35100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-187100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-64600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-45600</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1287,24 +1344,27 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
+      <c r="E29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
         <v>-1000</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H29" s="3" t="s">
         <v>3</v>
       </c>
@@ -1317,9 +1377,12 @@
       <c r="K29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1347,9 +1410,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1377,69 +1443,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="E32" s="3">
         <v>-500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-12400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-27400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-346900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-106200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>59300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-36100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-187100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-64600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-45600</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1467,74 +1542,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-346900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-106200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>59300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-36100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-187100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-64600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-45600</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42369</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42004</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1547,8 +1631,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1561,38 +1646,42 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>276000</v>
+      </c>
+      <c r="E41" s="3">
         <v>255000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>80200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>96100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>48900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>53400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>52200</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1620,129 +1709,144 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>122600</v>
+      </c>
+      <c r="E43" s="3">
         <v>350800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>210400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>238000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>66300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>15600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>53300</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>30100</v>
+      </c>
+      <c r="E44" s="3">
         <v>61600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>35700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>33400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>15900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>4700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>16600</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>58100</v>
+      </c>
+      <c r="E45" s="3">
         <v>20600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>6000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>8500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>14600</v>
-      </c>
-      <c r="H45" s="3">
-        <v>1900</v>
       </c>
       <c r="I45" s="3">
         <v>1900</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
+      <c r="J45" s="3">
+        <v>1900</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>486800</v>
+      </c>
+      <c r="E46" s="3">
         <v>688100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>332300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>376100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>145700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>75600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>124000</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1758,81 +1862,90 @@
       <c r="G47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H47" s="3">
-        <v>0</v>
+      <c r="H47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I47" s="3">
         <v>0</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
+      <c r="J47" s="3">
+        <v>0</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>509000</v>
+      </c>
+      <c r="E48" s="3">
         <v>773400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>531300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>468000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>294200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>153600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>189900</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>155400</v>
+      </c>
+      <c r="E49" s="3">
         <v>192500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>184400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>192200</v>
-      </c>
-      <c r="G49" s="3">
-        <v>94500</v>
       </c>
       <c r="H49" s="3">
         <v>94500</v>
       </c>
       <c r="I49" s="3">
+        <v>94500</v>
+      </c>
+      <c r="J49" s="3">
         <v>103200</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1860,9 +1973,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1890,39 +2006,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E52" s="3">
         <v>11000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>6600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>6800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1800</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1950,39 +2072,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1157900</v>
+      </c>
+      <c r="E54" s="3">
         <v>1664900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1054600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1043100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>536900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>324800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>418900</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1995,8 +2123,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2009,188 +2138,207 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>61300</v>
+      </c>
+      <c r="E57" s="3">
         <v>115300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>106700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>92300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>48500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>12600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>22200</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E58" s="3">
         <v>6900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>7700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>4400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>5100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>4700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>4800</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>156000</v>
+      </c>
+      <c r="E59" s="3">
         <v>264000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>106200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>145400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>46100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>15100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>31500</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>220200</v>
+      </c>
+      <c r="E60" s="3">
         <v>386200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>220600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>242200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>99700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>32300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>58500</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>333800</v>
+      </c>
+      <c r="E61" s="3">
         <v>340200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>343500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>278500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>272700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>210500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>213700</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>46700</v>
+      </c>
+      <c r="E62" s="3">
         <v>51800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>3300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>9400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>100</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2218,9 +2366,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2248,9 +2399,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2278,39 +2432,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>600600</v>
+      </c>
+      <c r="E66" s="3">
         <v>778100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>567400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>530000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>374700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>244600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>272200</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2323,8 +2483,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2352,9 +2513,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2382,9 +2546,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2412,9 +2579,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2442,39 +2612,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-421700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-73300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>31500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-27400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-288800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-101700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-37000</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2502,9 +2678,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2532,9 +2711,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2562,39 +2744,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>557300</v>
+      </c>
+      <c r="E76" s="3">
         <v>886800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>487200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>513100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>162300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>80200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>146600</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2622,74 +2810,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42369</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42004</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-346900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-106200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>59300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-36100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-187100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-64600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-45600</v>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2702,38 +2899,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>302100</v>
+      </c>
+      <c r="E83" s="3">
         <v>292200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>259100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>159300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>101000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>69500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>68300</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2761,9 +2962,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2791,9 +2995,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2821,9 +3028,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2851,9 +3061,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2881,39 +3094,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>68900</v>
+      </c>
+      <c r="E89" s="3">
         <v>305500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>350300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>79700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-54100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>37500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>18700</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2926,38 +3145,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-113500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-200400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-279200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-141500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-23100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-26100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-130500</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2985,9 +3208,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3015,39 +3241,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-37800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-114100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-297500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-250800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-227200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-26000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-138900</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3060,8 +3292,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3089,9 +3322,12 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3119,9 +3355,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3149,9 +3388,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3179,97 +3421,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-16700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-68600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>218100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>276600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-10500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>137300</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E101" s="3">
         <v>200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-400</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>21000</v>
+      </c>
+      <c r="E102" s="3">
         <v>174800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-15900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>47200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-4500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>16800</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/NEX_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/NEX_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="92">
   <si>
     <t>NEX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,154 +665,166 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42004</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>1423400</v>
+      </c>
+      <c r="E8" s="3">
         <v>1202600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1821600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2137000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1542100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>420600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>366200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>395800</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>1255300</v>
+      </c>
+      <c r="E9" s="3">
         <v>1032600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1403900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1660300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1280900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>402700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>305500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>315100</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>168100</v>
+      </c>
+      <c r="E10" s="3">
         <v>170000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>417600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>476700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>261200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>17800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>60700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>80700</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -826,8 +838,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -858,9 +871,12 @@
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -891,75 +907,84 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E14" s="3">
         <v>69500</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>81100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>16600</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>22900</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>37500</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>10200</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>22500</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>184200</v>
+      </c>
+      <c r="E15" s="3">
         <v>302100</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>292200</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>259100</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>159300</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>101000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>69500</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>68300</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -970,74 +995,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1518300</v>
+      </c>
+      <c r="E17" s="3">
         <v>1533900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1905300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2052300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1546600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>570600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>407600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>431000</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-94900</v>
+      </c>
+      <c r="E18" s="3">
         <v>-331300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-83700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>84700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-4500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-150000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-41400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-35200</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1051,158 +1083,171 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E20" s="3">
         <v>6500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>12400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>27400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>91000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-22700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>208900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>356300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>182100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-47600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>28400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>33100</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>24600</v>
+      </c>
+      <c r="E22" s="3">
         <v>20700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>21900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>33500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>58900</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>38500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>23500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>10500</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-117700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-345400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-105200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>63600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-36000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-187100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-64600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-45600</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E24" s="3">
         <v>1500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>4300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-900</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1215,9 +1260,12 @@
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1248,75 +1296,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-119400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-346900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-106200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>59300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-35100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-187100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-64600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-45600</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-119400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-346900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-106200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>59300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-35100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-187100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-64600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-45600</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1347,9 +1404,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1359,15 +1419,15 @@
       <c r="E29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
+      <c r="F29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
         <v>-1000</v>
       </c>
-      <c r="H29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I29" s="3" t="s">
         <v>3</v>
       </c>
@@ -1380,9 +1440,12 @@
       <c r="L29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1413,9 +1476,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1446,75 +1512,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E32" s="3">
         <v>-6500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-12400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-27400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-119400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-346900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-106200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>59300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-36100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-187100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-64600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-45600</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1545,80 +1620,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-119400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-346900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-106200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>59300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-36100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-187100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-64600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-45600</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42004</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1632,8 +1716,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1647,41 +1732,45 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>110700</v>
+      </c>
+      <c r="E41" s="3">
         <v>276000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>255000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>80200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>96100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>48900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>53400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>52200</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1712,141 +1801,156 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>301700</v>
+      </c>
+      <c r="E43" s="3">
         <v>122600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>350800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>210400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>238000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>66300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>15600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>53300</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>38100</v>
+      </c>
+      <c r="E44" s="3">
         <v>30100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>61600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>35700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>33400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>15900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>4700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>16600</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>57200</v>
+      </c>
+      <c r="E45" s="3">
         <v>58100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>20600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>6000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>8500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>14600</v>
-      </c>
-      <c r="I45" s="3">
-        <v>1900</v>
       </c>
       <c r="J45" s="3">
         <v>1900</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
+      <c r="K45" s="3">
+        <v>1900</v>
       </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>507700</v>
+      </c>
+      <c r="E46" s="3">
         <v>486800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>688100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>332300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>376100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>145700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>75600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>124000</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1865,87 +1969,96 @@
       <c r="H47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I47" s="3">
-        <v>0</v>
+      <c r="I47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J47" s="3">
         <v>0</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
+      <c r="K47" s="3">
+        <v>0</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>684200</v>
+      </c>
+      <c r="E48" s="3">
         <v>509000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>773400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>531300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>468000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>294200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>153600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>189900</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>257700</v>
+      </c>
+      <c r="E49" s="3">
         <v>155400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>192500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>184400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>192200</v>
-      </c>
-      <c r="H49" s="3">
-        <v>94500</v>
       </c>
       <c r="I49" s="3">
         <v>94500</v>
       </c>
       <c r="J49" s="3">
+        <v>94500</v>
+      </c>
+      <c r="K49" s="3">
         <v>103200</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1976,9 +2089,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2009,42 +2125,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E52" s="3">
         <v>6700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>11000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>6600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>6800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1800</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2075,42 +2197,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1457600</v>
+      </c>
+      <c r="E54" s="3">
         <v>1157900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1664900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1054600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1043100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>536900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>324800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>418900</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2124,8 +2252,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2139,206 +2268,225 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>191000</v>
+      </c>
+      <c r="E57" s="3">
         <v>61300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>115300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>106700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>92300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>48500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>12600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>22200</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>25300</v>
+      </c>
+      <c r="E58" s="3">
         <v>2900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>6900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>7700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>4400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>5100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>4700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>4800</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>255400</v>
+      </c>
+      <c r="E59" s="3">
         <v>156000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>264000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>106200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>145400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>46100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>15100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>31500</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>471700</v>
+      </c>
+      <c r="E60" s="3">
         <v>220200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>386200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>220600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>242200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>99700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>32300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>58500</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>388400</v>
+      </c>
+      <c r="E61" s="3">
         <v>333800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>340200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>343500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>278500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>272700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>210500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>213700</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>50500</v>
+      </c>
+      <c r="E62" s="3">
         <v>46700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>51800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>9400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>100</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2369,9 +2517,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2402,9 +2553,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2435,42 +2589,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>910600</v>
+      </c>
+      <c r="E66" s="3">
         <v>600600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>778100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>567400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>530000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>374700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>244600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>272200</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2484,8 +2644,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2516,9 +2677,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2549,9 +2713,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2582,9 +2749,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2615,42 +2785,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-541200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-421700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-73300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>31500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-27400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-288800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-101700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-37000</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2681,9 +2857,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2714,9 +2893,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2747,42 +2929,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>547000</v>
+      </c>
+      <c r="E76" s="3">
         <v>557300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>886800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>487200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>513100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>162300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>80200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>146600</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2813,80 +3001,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42004</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-119400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-346900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-106200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>59300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-36100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-187100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-64600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-45600</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2900,41 +3097,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>184200</v>
+      </c>
+      <c r="E83" s="3">
         <v>302100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>292200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>259100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>159300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>101000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>69500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>68300</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2965,9 +3166,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2998,9 +3202,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3031,9 +3238,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3064,9 +3274,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3097,42 +3310,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-50800</v>
+      </c>
+      <c r="E89" s="3">
         <v>68900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>305500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>350300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>79700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-54100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>37500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>18700</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3146,41 +3365,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-184500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-113500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-200400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-279200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-141500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-23100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-26100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-130500</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3211,9 +3434,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3244,42 +3470,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-163200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-37800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-114100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-297500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-250800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-227200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-26000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-138900</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3293,8 +3525,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3325,9 +3558,12 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3358,9 +3594,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3391,9 +3630,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3424,106 +3666,118 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>48300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-9800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-16700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-68600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>218100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>276600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-10500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>137300</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>400</v>
+      </c>
+      <c r="E101" s="3">
         <v>-200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-400</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-165300</v>
+      </c>
+      <c r="E102" s="3">
         <v>21000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>174800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-15900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>47200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-4500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>16800</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/NEX_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/NEX_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="92">
   <si>
     <t>NEX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,166 +665,178 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42369</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42004</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>3244800</v>
+      </c>
+      <c r="E8" s="3">
         <v>1423400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1202600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1821600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2137000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1542100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>420600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>366200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>395800</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>2490100</v>
+      </c>
+      <c r="E9" s="3">
         <v>1255300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1032600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1403900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1660300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1280900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>402700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>305500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>315100</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>754700</v>
+      </c>
+      <c r="E10" s="3">
         <v>168100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>170000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>417600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>476700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>261200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>17800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>60700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>80700</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -839,8 +851,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -874,9 +887,12 @@
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,81 +926,90 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>54800</v>
+      </c>
+      <c r="E14" s="3">
         <v>-1700</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>69500</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>81100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>16600</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>22900</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>37500</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>10200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>22500</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>229300</v>
+      </c>
+      <c r="E15" s="3">
         <v>184200</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>302100</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>292200</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>259100</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>159300</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>101000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>69500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>68300</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -996,80 +1021,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2903600</v>
+      </c>
+      <c r="E17" s="3">
         <v>1518300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1533900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1905300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2052300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1546600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>570600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>407600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>431000</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>341300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-94900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-331300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-83700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>84700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-4500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-150000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-41400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-35200</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1084,173 +1116,186 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E20" s="3">
         <v>1700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>6500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>12400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>27400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>577200</v>
+      </c>
+      <c r="E21" s="3">
         <v>91000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-22700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>208900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>356300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>182100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-47600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>28400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>33100</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>28400</v>
+      </c>
+      <c r="E22" s="3">
         <v>24600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>20700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>21900</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>33500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>58900</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>38500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>23500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>10500</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>319500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-117700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-345400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-105200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>63600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-36000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-187100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-64600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-45600</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E24" s="3">
         <v>1700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>4300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-900</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1263,9 +1308,12 @@
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1299,81 +1347,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>315000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-119400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-346900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-106200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>59300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-35100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-187100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-64600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-45600</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>315000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-119400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-346900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-106200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>59300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-35100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-187100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-64600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-45600</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1407,9 +1464,12 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1422,15 +1482,15 @@
       <c r="F29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
+      <c r="G29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
         <v>-1000</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J29" s="3" t="s">
         <v>3</v>
       </c>
@@ -1443,9 +1503,12 @@
       <c r="M29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1479,9 +1542,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1515,81 +1581,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-6500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-12400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-27400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>315000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-119400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-346900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-106200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>59300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-36100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-187100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-64600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-45600</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1623,86 +1698,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>315000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-119400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-346900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-106200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>59300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-36100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-187100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-64600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-45600</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42369</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42004</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1717,8 +1801,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1733,44 +1818,48 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>218500</v>
+      </c>
+      <c r="E41" s="3">
         <v>110700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>276000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>255000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>80200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>96100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>48900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>53400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>52200</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1804,173 +1893,188 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>397200</v>
+      </c>
+      <c r="E43" s="3">
         <v>301700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>122600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>350800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>210400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>238000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>66300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>15600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>53300</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>66400</v>
+      </c>
+      <c r="E44" s="3">
         <v>38100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>30100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>61600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>35700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>33400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>15900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>4700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>16600</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>43900</v>
+      </c>
+      <c r="E45" s="3">
         <v>57200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>58100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>20600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>6000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>8500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>14600</v>
-      </c>
-      <c r="J45" s="3">
-        <v>1900</v>
       </c>
       <c r="K45" s="3">
         <v>1900</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
+      <c r="L45" s="3">
+        <v>1900</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>726000</v>
+      </c>
+      <c r="E46" s="3">
         <v>507700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>486800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>688100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>332300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>376100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>145700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>75600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>124000</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0</v>
       </c>
       <c r="J47" s="3">
         <v>0</v>
@@ -1978,87 +2082,96 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>3</v>
+      <c r="L47" s="3">
+        <v>0</v>
       </c>
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>741900</v>
+      </c>
+      <c r="E48" s="3">
         <v>684200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>509000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>773400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>531300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>468000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>294200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>153600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>189900</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>243400</v>
+      </c>
+      <c r="E49" s="3">
         <v>257700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>155400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>192500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>184400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>192200</v>
-      </c>
-      <c r="I49" s="3">
-        <v>94500</v>
       </c>
       <c r="J49" s="3">
         <v>94500</v>
       </c>
       <c r="K49" s="3">
+        <v>94500</v>
+      </c>
+      <c r="L49" s="3">
         <v>103200</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2092,9 +2205,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2128,45 +2244,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>15900</v>
+      </c>
+      <c r="E52" s="3">
         <v>8000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>6700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>11000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>6600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>6800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1800</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2200,45 +2322,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1727200</v>
+      </c>
+      <c r="E54" s="3">
         <v>1457600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1157900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1664900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1054600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1043100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>536900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>324800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>418900</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2253,8 +2381,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2269,224 +2398,243 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>202900</v>
+      </c>
+      <c r="E57" s="3">
         <v>191000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>61300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>115300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>106700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>92300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>48500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>12600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>22200</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>33900</v>
+      </c>
+      <c r="E58" s="3">
         <v>25300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>6900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>7700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>4400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>5100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>4700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4800</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>316500</v>
+      </c>
+      <c r="E59" s="3">
         <v>255400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>156000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>264000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>106200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>145400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>46100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>15100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>31500</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>553300</v>
+      </c>
+      <c r="E60" s="3">
         <v>471700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>220200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>386200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>220600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>242200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>99700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>32300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>58500</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>359400</v>
+      </c>
+      <c r="E61" s="3">
         <v>388400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>333800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>340200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>343500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>278500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>272700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>210500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>213700</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>24600</v>
+      </c>
+      <c r="E62" s="3">
         <v>50500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>46700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>51800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>9400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>100</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2520,9 +2668,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2556,9 +2707,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2592,45 +2746,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>937200</v>
+      </c>
+      <c r="E66" s="3">
         <v>910600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>600600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>778100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>567400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>530000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>374700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>244600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>272200</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2645,8 +2805,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2680,9 +2841,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2716,9 +2880,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2752,9 +2919,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2788,45 +2958,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-226200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-541200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-421700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-73300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>31500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-27400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-288800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-101700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-37000</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2860,9 +3036,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2896,9 +3075,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2932,45 +3114,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>789900</v>
+      </c>
+      <c r="E76" s="3">
         <v>547000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>557300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>886800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>487200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>513100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>162300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>80200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>146600</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3004,86 +3192,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42369</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42004</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>315000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-119400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-346900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-106200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>59300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-36100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-187100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-64600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-45600</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3098,44 +3295,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>229300</v>
+      </c>
+      <c r="E83" s="3">
         <v>184200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>302100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>292200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>259100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>159300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>101000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>69500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>68300</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3169,9 +3370,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3205,9 +3409,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3241,9 +3448,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3277,9 +3487,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3313,45 +3526,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>454400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-50800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>68900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>305500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>350300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>79700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-54100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>37500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>18700</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3366,44 +3585,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-215400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-184500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-113500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-200400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-279200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-141500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-23100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-26100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-130500</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3437,9 +3660,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3473,45 +3699,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-186200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-163200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-37800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-114100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-297500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-250800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-227200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-26000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-138900</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3526,8 +3758,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3561,9 +3794,12 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3597,9 +3833,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3633,9 +3872,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3669,115 +3911,127 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-161500</v>
+      </c>
+      <c r="E100" s="3">
         <v>48300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-9800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-16700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-68600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>218100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>276600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-10500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>137300</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E101" s="3">
         <v>400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-400</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>107800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-165300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>21000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>174800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-15900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>47200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-4500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>16800</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
